--- a/Code/Results/Cases/Case_8_27/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_8_27/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.00915672197887</v>
+        <v>1.007321622902895</v>
       </c>
       <c r="D2">
-        <v>1.026324098528285</v>
+        <v>1.024547418382228</v>
       </c>
       <c r="E2">
-        <v>1.0143451430344</v>
+        <v>1.012771558934106</v>
       </c>
       <c r="F2">
-        <v>1.02890459179036</v>
+        <v>1.028080321220938</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.046196561319787</v>
+        <v>1.045249430894901</v>
       </c>
       <c r="J2">
-        <v>1.031066964297765</v>
+        <v>1.029285529222373</v>
       </c>
       <c r="K2">
-        <v>1.037428485201287</v>
+        <v>1.035675041937153</v>
       </c>
       <c r="L2">
-        <v>1.025608180303846</v>
+        <v>1.024055787521791</v>
       </c>
       <c r="M2">
-        <v>1.039975407558781</v>
+        <v>1.039161837396336</v>
       </c>
       <c r="N2">
-        <v>1.032531197652103</v>
+        <v>1.026017372734801</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.04021024407334</v>
+        <v>1.03956635729097</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.03753544637969</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.03630439509668</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.021551913154354</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.012586732967038</v>
+        <v>1.010502826995476</v>
       </c>
       <c r="D3">
-        <v>1.02854711488344</v>
+        <v>1.026524353530512</v>
       </c>
       <c r="E3">
-        <v>1.017018446971935</v>
+        <v>1.015226738219292</v>
       </c>
       <c r="F3">
-        <v>1.03149715089497</v>
+        <v>1.030560677840477</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.019999999999999</v>
+      </c>
       <c r="I3">
-        <v>1.046970172109966</v>
+        <v>1.045887975181623</v>
       </c>
       <c r="J3">
-        <v>1.03274005445758</v>
+        <v>1.030711212419742</v>
       </c>
       <c r="K3">
-        <v>1.038827308583381</v>
+        <v>1.036828736257997</v>
       </c>
       <c r="L3">
-        <v>1.027438107643431</v>
+        <v>1.02566842775048</v>
       </c>
       <c r="M3">
-        <v>1.041742277548818</v>
+        <v>1.040816909386646</v>
       </c>
       <c r="N3">
-        <v>1.03420666379185</v>
+        <v>1.026816724076591</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.041608602412131</v>
+        <v>1.040876236309139</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.038521869299426</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.037117213277939</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.02176446648914</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.014769889735526</v>
+        <v>1.012529038748823</v>
       </c>
       <c r="D4">
-        <v>1.029966163801306</v>
+        <v>1.027787578361935</v>
       </c>
       <c r="E4">
-        <v>1.018725570092744</v>
+        <v>1.016796087146908</v>
       </c>
       <c r="F4">
-        <v>1.033153752777223</v>
+        <v>1.032146545315992</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.047455345727283</v>
+        <v>1.046287538184816</v>
       </c>
       <c r="J4">
-        <v>1.033803180292391</v>
+        <v>1.031617591074902</v>
       </c>
       <c r="K4">
-        <v>1.03971589108042</v>
+        <v>1.037561811740892</v>
       </c>
       <c r="L4">
-        <v>1.028603127408742</v>
+        <v>1.026695938021841</v>
       </c>
       <c r="M4">
-        <v>1.042867853202023</v>
+        <v>1.041871873771434</v>
       </c>
       <c r="N4">
-        <v>1.035271299387289</v>
+        <v>1.027324909371855</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.042499418158999</v>
+        <v>1.041711168968459</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.039151071134712</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.037636543031403</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.021897211029544</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.015682183462324</v>
+        <v>1.0133759335804</v>
       </c>
       <c r="D5">
-        <v>1.030562271977393</v>
+        <v>1.028318708362063</v>
       </c>
       <c r="E5">
-        <v>1.019440620177728</v>
+        <v>1.017453687016238</v>
       </c>
       <c r="F5">
-        <v>1.03384671768857</v>
+        <v>1.032810048478613</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.047657758643066</v>
+        <v>1.046454206947843</v>
       </c>
       <c r="J5">
-        <v>1.034248432069584</v>
+        <v>1.031997380958452</v>
       </c>
       <c r="K5">
-        <v>1.040089601173839</v>
+        <v>1.037870612845873</v>
       </c>
       <c r="L5">
-        <v>1.029091078425305</v>
+        <v>1.027126491910719</v>
       </c>
       <c r="M5">
-        <v>1.043338306096867</v>
+        <v>1.042312887623904</v>
       </c>
       <c r="N5">
-        <v>1.035717183473076</v>
+        <v>1.027537848061895</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.042871748957838</v>
+        <v>1.042060201194278</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.039422491968331</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.037862788521457</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.021953056105455</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.015838462462064</v>
+        <v>1.013520860278236</v>
       </c>
       <c r="D6">
-        <v>1.030667062214633</v>
+        <v>1.02841231856973</v>
       </c>
       <c r="E6">
-        <v>1.019563626793651</v>
+        <v>1.017566717491867</v>
       </c>
       <c r="F6">
-        <v>1.033964523231509</v>
+        <v>1.032922744007146</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.047694069981312</v>
+        <v>1.046484335876603</v>
       </c>
       <c r="J6">
-        <v>1.034326432077435</v>
+        <v>1.032064019057782</v>
       </c>
       <c r="K6">
-        <v>1.040157033691376</v>
+        <v>1.037926876319893</v>
       </c>
       <c r="L6">
-        <v>1.029175965676537</v>
+        <v>1.027201412477168</v>
       </c>
       <c r="M6">
-        <v>1.043418775134922</v>
+        <v>1.042388250707125</v>
       </c>
       <c r="N6">
-        <v>1.035795294249885</v>
+        <v>1.027575210340777</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.042935434594726</v>
+        <v>1.042119845890508</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.039478923506827</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.037912202739666</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.021963794315215</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.014791768798613</v>
+        <v>1.012566835174411</v>
       </c>
       <c r="D7">
-        <v>1.029987463974634</v>
+        <v>1.027820249479689</v>
       </c>
       <c r="E7">
-        <v>1.018743900482643</v>
+        <v>1.016828900113918</v>
       </c>
       <c r="F7">
-        <v>1.033167705146177</v>
+        <v>1.0321678145109</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.047464881268893</v>
+        <v>1.046304937715484</v>
       </c>
       <c r="J7">
-        <v>1.033818566260968</v>
+        <v>1.031648477506339</v>
       </c>
       <c r="K7">
-        <v>1.039734067650089</v>
+        <v>1.037591221641631</v>
       </c>
       <c r="L7">
-        <v>1.028618319173377</v>
+        <v>1.026725436253975</v>
       </c>
       <c r="M7">
-        <v>1.042878777433762</v>
+        <v>1.04189002908182</v>
       </c>
       <c r="N7">
-        <v>1.035286707205706</v>
+        <v>1.02739445317752</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.042508063932025</v>
+        <v>1.041725537655118</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.039184051229016</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.037679489870244</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.021905891573448</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.010335640312546</v>
+        <v>1.008470041641326</v>
       </c>
       <c r="D8">
-        <v>1.027095953106695</v>
+        <v>1.025275242815338</v>
       </c>
       <c r="E8">
-        <v>1.015264342476639</v>
+        <v>1.013665803210783</v>
       </c>
       <c r="F8">
-        <v>1.029791017533973</v>
+        <v>1.028953505317104</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.046469713618659</v>
+        <v>1.045503679279354</v>
       </c>
       <c r="J8">
-        <v>1.031648217523515</v>
+        <v>1.029835366836994</v>
       </c>
       <c r="K8">
-        <v>1.037920986852663</v>
+        <v>1.036123392036297</v>
       </c>
       <c r="L8">
-        <v>1.026241443271652</v>
+        <v>1.024663790429339</v>
       </c>
       <c r="M8">
-        <v>1.040582022310519</v>
+        <v>1.039755061041068</v>
       </c>
       <c r="N8">
-        <v>1.033113276324103</v>
+        <v>1.026483944384416</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.040690339010129</v>
+        <v>1.040035854487107</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.037906619789226</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.036646642325852</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.021642380456766</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.002178978671594</v>
+        <v>1.000924735828137</v>
       </c>
       <c r="D9">
-        <v>1.021826217248895</v>
+        <v>1.0206035088341</v>
       </c>
       <c r="E9">
-        <v>1.008938837071384</v>
+        <v>1.007875362694863</v>
       </c>
       <c r="F9">
-        <v>1.023667282984913</v>
+        <v>1.023105964926043</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.044584892065618</v>
+        <v>1.043947652487026</v>
       </c>
       <c r="J9">
-        <v>1.027655025532618</v>
+        <v>1.026444881496945</v>
       </c>
       <c r="K9">
-        <v>1.034574833464029</v>
+        <v>1.033370924487862</v>
       </c>
       <c r="L9">
-        <v>1.021888533734284</v>
+        <v>1.020841946894111</v>
       </c>
       <c r="M9">
-        <v>1.036387700423397</v>
+        <v>1.035834966102974</v>
       </c>
       <c r="N9">
-        <v>1.029114413542553</v>
+        <v>1.024602047541542</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.037370807664471</v>
+        <v>1.036933353465284</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.035537484171736</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.034696995775914</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.021121636875615</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9965925611729266</v>
+        <v>0.9958455626851261</v>
       </c>
       <c r="D10">
-        <v>1.018253487396863</v>
+        <v>1.017503227713698</v>
       </c>
       <c r="E10">
-        <v>1.004646901805801</v>
+        <v>1.004028595307039</v>
       </c>
       <c r="F10">
-        <v>1.019682675358634</v>
+        <v>1.019352039489978</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.043286527452198</v>
+        <v>1.042916194292486</v>
       </c>
       <c r="J10">
-        <v>1.024942026324234</v>
+        <v>1.024224985204116</v>
       </c>
       <c r="K10">
-        <v>1.032300809264056</v>
+        <v>1.031563487334919</v>
       </c>
       <c r="L10">
-        <v>1.018932758837415</v>
+        <v>1.01832549119866</v>
       </c>
       <c r="M10">
-        <v>1.03370541987062</v>
+        <v>1.03338046193566</v>
       </c>
       <c r="N10">
-        <v>1.026397561564108</v>
+        <v>1.02359030306607</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.035299587564124</v>
+        <v>1.035042419388663</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.033946445116878</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.033437552409037</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.02078092547866</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9945954614308581</v>
+        <v>0.9941235553969517</v>
       </c>
       <c r="D11">
-        <v>1.017062873799326</v>
+        <v>1.01654558907293</v>
       </c>
       <c r="E11">
-        <v>1.003182047442669</v>
+        <v>1.002807330902311</v>
       </c>
       <c r="F11">
-        <v>1.019629110981747</v>
+        <v>1.019426121317976</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.043030872784807</v>
+        <v>1.042800153169082</v>
       </c>
       <c r="J11">
-        <v>1.024194816835633</v>
+        <v>1.023742861354375</v>
       </c>
       <c r="K11">
-        <v>1.031670026860769</v>
+        <v>1.031162082683376</v>
       </c>
       <c r="L11">
-        <v>1.01804420347049</v>
+        <v>1.017676498557674</v>
       </c>
       <c r="M11">
-        <v>1.03419010783837</v>
+        <v>1.03399075814073</v>
       </c>
       <c r="N11">
-        <v>1.025649290952327</v>
+        <v>1.023764457344957</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.036120562311413</v>
+        <v>1.03596287906362</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.033533361615661</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.033189880838044</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.020752101086785</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9940001728588684</v>
+        <v>0.9936095471984677</v>
       </c>
       <c r="D12">
-        <v>1.016735864343427</v>
+        <v>1.016284993174312</v>
       </c>
       <c r="E12">
-        <v>1.002773032802172</v>
+        <v>1.002469329481841</v>
       </c>
       <c r="F12">
-        <v>1.020184856313669</v>
+        <v>1.020019913732045</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.043039142421309</v>
+        <v>1.042847701990463</v>
       </c>
       <c r="J12">
-        <v>1.024060644753722</v>
+        <v>1.023686846677007</v>
       </c>
       <c r="K12">
-        <v>1.031549305174375</v>
+        <v>1.031106710374991</v>
       </c>
       <c r="L12">
-        <v>1.01784729802073</v>
+        <v>1.017549373455066</v>
       </c>
       <c r="M12">
-        <v>1.034935300980922</v>
+        <v>1.034773358469944</v>
       </c>
       <c r="N12">
-        <v>1.02551492833067</v>
+        <v>1.023926109516358</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.037036981367044</v>
+        <v>1.036908930291415</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.033448007171455</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.033150731474498</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.020771096757286</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9944547130856141</v>
+        <v>0.9939845896278213</v>
       </c>
       <c r="D13">
-        <v>1.017065674140212</v>
+        <v>1.016544627736163</v>
       </c>
       <c r="E13">
-        <v>1.003156902841484</v>
+        <v>1.002781068911765</v>
       </c>
       <c r="F13">
-        <v>1.021271646619096</v>
+        <v>1.021070799526345</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.043262983477662</v>
+        <v>1.043028132859779</v>
       </c>
       <c r="J13">
-        <v>1.024402140762136</v>
+        <v>1.023952171319263</v>
       </c>
       <c r="K13">
-        <v>1.031830105234686</v>
+        <v>1.031318584180139</v>
       </c>
       <c r="L13">
-        <v>1.018180038916369</v>
+        <v>1.017811325737584</v>
       </c>
       <c r="M13">
-        <v>1.035959650258096</v>
+        <v>1.035762434178151</v>
       </c>
       <c r="N13">
-        <v>1.025856909302586</v>
+        <v>1.024032238800469</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.038123915534447</v>
+        <v>1.037968012221081</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.033644045309759</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.033297789705174</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.020830658821753</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9952458478264378</v>
+        <v>0.9946504159476928</v>
       </c>
       <c r="D14">
-        <v>1.017593226087967</v>
+        <v>1.016963890029535</v>
       </c>
       <c r="E14">
-        <v>1.003782546098544</v>
+        <v>1.003294556773237</v>
       </c>
       <c r="F14">
-        <v>1.02226042366859</v>
+        <v>1.022002685022769</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.043515014998888</v>
+        <v>1.043214390177555</v>
       </c>
       <c r="J14">
-        <v>1.024853690145342</v>
+        <v>1.024283424628243</v>
       </c>
       <c r="K14">
-        <v>1.032207359641227</v>
+        <v>1.031589388483131</v>
       </c>
       <c r="L14">
-        <v>1.018650355679619</v>
+        <v>1.018171496566627</v>
       </c>
       <c r="M14">
-        <v>1.036790841282696</v>
+        <v>1.036537699821385</v>
       </c>
       <c r="N14">
-        <v>1.02630909993771</v>
+        <v>1.024082590553052</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.038954405885136</v>
+        <v>1.038754319444344</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.033912204696741</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.033490820541134</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.020891509656526</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9956745760063989</v>
+        <v>0.9950148475819459</v>
       </c>
       <c r="D15">
-        <v>1.017873095606664</v>
+        <v>1.01718853605255</v>
       </c>
       <c r="E15">
-        <v>1.004114739970934</v>
+        <v>1.003569606979222</v>
       </c>
       <c r="F15">
-        <v>1.022649378251589</v>
+        <v>1.022362440271348</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.043630031742076</v>
+        <v>1.043296252380448</v>
       </c>
       <c r="J15">
-        <v>1.025076225896061</v>
+        <v>1.024444141368664</v>
       </c>
       <c r="K15">
-        <v>1.0323955427317</v>
+        <v>1.031723252991317</v>
       </c>
       <c r="L15">
-        <v>1.01888797465837</v>
+        <v>1.018352963092124</v>
       </c>
       <c r="M15">
-        <v>1.03708680983483</v>
+        <v>1.036804950121633</v>
       </c>
       <c r="N15">
-        <v>1.02653195171472</v>
+        <v>1.024092571068843</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.039225895597673</v>
+        <v>1.039003115725532</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.034051138213038</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.033591921414576</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.020918241192686</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9979442608783566</v>
+        <v>0.9969744177108815</v>
       </c>
       <c r="D16">
-        <v>1.01931696455332</v>
+        <v>1.018365147635218</v>
       </c>
       <c r="E16">
-        <v>1.005845721198646</v>
+        <v>1.005026904876451</v>
       </c>
       <c r="F16">
-        <v>1.024173462261899</v>
+        <v>1.023745770073269</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.044147863820238</v>
+        <v>1.043656215596374</v>
       </c>
       <c r="J16">
-        <v>1.026162632137155</v>
+        <v>1.025231422127967</v>
       </c>
       <c r="K16">
-        <v>1.033310309474725</v>
+        <v>1.032374818082848</v>
       </c>
       <c r="L16">
-        <v>1.020073855438061</v>
+        <v>1.019269573525781</v>
       </c>
       <c r="M16">
-        <v>1.038084118346058</v>
+        <v>1.037663667572423</v>
       </c>
       <c r="N16">
-        <v>1.027619900777289</v>
+        <v>1.024129531488862</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.03997542750708</v>
+        <v>1.039643096826518</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.034701086335563</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.034056080378717</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.021031366791171</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9992765472692233</v>
+        <v>0.9981502919141505</v>
       </c>
       <c r="D17">
-        <v>1.02015336230595</v>
+        <v>1.019064544063198</v>
       </c>
       <c r="E17">
-        <v>1.006851951712907</v>
+        <v>1.005895806125457</v>
       </c>
       <c r="F17">
-        <v>1.024823320981052</v>
+        <v>1.024324529245113</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.044413346960703</v>
+        <v>1.043842205783561</v>
       </c>
       <c r="J17">
-        <v>1.026762555114552</v>
+        <v>1.025679737720978</v>
       </c>
       <c r="K17">
-        <v>1.033817022358895</v>
+        <v>1.032746360738489</v>
       </c>
       <c r="L17">
-        <v>1.020740898620625</v>
+        <v>1.01980124422094</v>
       </c>
       <c r="M17">
-        <v>1.038409669899226</v>
+        <v>1.037919092397382</v>
       </c>
       <c r="N17">
-        <v>1.028220675714126</v>
+        <v>1.024192964291904</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.04010362963173</v>
+        <v>1.039715831115747</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.035061945484187</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.034321620124332</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.021089475176314</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9999055545170575</v>
+        <v>0.9987214934419978</v>
       </c>
       <c r="D18">
-        <v>1.020520416076195</v>
+        <v>1.019380321147318</v>
       </c>
       <c r="E18">
-        <v>1.007305827125687</v>
+        <v>1.006299523926233</v>
       </c>
       <c r="F18">
-        <v>1.024671678022449</v>
+        <v>1.024145847430031</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.044466660932413</v>
+        <v>1.043866651727261</v>
       </c>
       <c r="J18">
-        <v>1.026972130363539</v>
+        <v>1.025832888378764</v>
       </c>
       <c r="K18">
-        <v>1.033994098010374</v>
+        <v>1.032872705067533</v>
       </c>
       <c r="L18">
-        <v>1.020999632935937</v>
+        <v>1.020010398178718</v>
       </c>
       <c r="M18">
-        <v>1.038077714693259</v>
+        <v>1.037560413612304</v>
       </c>
       <c r="N18">
-        <v>1.028430548584005</v>
+        <v>1.024196483292403</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.039603286911911</v>
+        <v>1.039194278246977</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.035175489514877</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.034398151511333</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.021094004798363</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9998926728978736</v>
+        <v>0.9987273210089447</v>
       </c>
       <c r="D19">
-        <v>1.020467279072552</v>
+        <v>1.019344695603495</v>
       </c>
       <c r="E19">
-        <v>1.007255654584564</v>
+        <v>1.006266581119162</v>
       </c>
       <c r="F19">
-        <v>1.023742261859809</v>
+        <v>1.023223417272303</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.044327228100248</v>
+        <v>1.043738045149553</v>
       </c>
       <c r="J19">
-        <v>1.026825084582195</v>
+        <v>1.025703586017665</v>
       </c>
       <c r="K19">
-        <v>1.033879130586009</v>
+        <v>1.032774865594702</v>
       </c>
       <c r="L19">
-        <v>1.020886432437176</v>
+        <v>1.019914047050716</v>
       </c>
       <c r="M19">
-        <v>1.037100966418314</v>
+        <v>1.036590512608377</v>
       </c>
       <c r="N19">
-        <v>1.028283293980785</v>
+        <v>1.024100791884736</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.038504940192181</v>
+        <v>1.038101213097901</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.035100608689399</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.034336010356337</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.02105085224631</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9980648889322433</v>
+        <v>0.9971304965603836</v>
       </c>
       <c r="D20">
-        <v>1.019210948031896</v>
+        <v>1.018296971065713</v>
       </c>
       <c r="E20">
-        <v>1.005779448547932</v>
+        <v>1.004995048409629</v>
       </c>
       <c r="F20">
-        <v>1.020732330981953</v>
+        <v>1.020315955989487</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.043643961114869</v>
+        <v>1.043176546282132</v>
       </c>
       <c r="J20">
-        <v>1.025670610208638</v>
+        <v>1.02477248265519</v>
       </c>
       <c r="K20">
-        <v>1.032924202823198</v>
+        <v>1.032025543354309</v>
       </c>
       <c r="L20">
-        <v>1.019721428922485</v>
+        <v>1.018950630900039</v>
       </c>
       <c r="M20">
-        <v>1.034420167024761</v>
+        <v>1.034010738976866</v>
       </c>
       <c r="N20">
-        <v>1.027127180121198</v>
+        <v>1.023701862440552</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.035854647101548</v>
+        <v>1.035530626254532</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.034429362252546</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.033810525902162</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.020867944050805</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9937842184341574</v>
+        <v>0.9934918859151894</v>
       </c>
       <c r="D21">
-        <v>1.016464059475003</v>
+        <v>1.0161007699738</v>
       </c>
       <c r="E21">
-        <v>1.00249040803076</v>
+        <v>1.002277983247404</v>
       </c>
       <c r="F21">
-        <v>1.017426409118565</v>
+        <v>1.017305354783934</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.042593257210733</v>
+        <v>1.042458404401343</v>
       </c>
       <c r="J21">
-        <v>1.02354413746803</v>
+        <v>1.023264251494407</v>
       </c>
       <c r="K21">
-        <v>1.031140087322079</v>
+        <v>1.030783396535798</v>
       </c>
       <c r="L21">
-        <v>1.017424751976752</v>
+        <v>1.01721632667608</v>
       </c>
       <c r="M21">
-        <v>1.032084986666711</v>
+        <v>1.031966125051011</v>
       </c>
       <c r="N21">
-        <v>1.024997687545388</v>
+        <v>1.023667092565666</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.033965475176078</v>
+        <v>1.03387140330732</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.033171152452579</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.032935831684926</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.02064676492674</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9910626462794715</v>
+        <v>0.9911634546027134</v>
       </c>
       <c r="D22">
-        <v>1.014721472299253</v>
+        <v>1.014698372780438</v>
       </c>
       <c r="E22">
-        <v>1.000409076840825</v>
+        <v>1.000547395627916</v>
       </c>
       <c r="F22">
-        <v>1.015422466733929</v>
+        <v>1.015483696881265</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.041926987587688</v>
+        <v>1.041997491830985</v>
       </c>
       <c r="J22">
-        <v>1.022200183233557</v>
+        <v>1.022296452451763</v>
       </c>
       <c r="K22">
-        <v>1.030006828397768</v>
+        <v>1.029984169294123</v>
       </c>
       <c r="L22">
-        <v>1.015972434192708</v>
+        <v>1.016108016298028</v>
       </c>
       <c r="M22">
-        <v>1.030694470145728</v>
+        <v>1.030754535113579</v>
       </c>
       <c r="N22">
-        <v>1.023651824741749</v>
+        <v>1.023597073855384</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.032864963622642</v>
+        <v>1.03291250152648</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.032356348688883</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.032355894999518</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.020502572048432</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9925010911362662</v>
+        <v>0.9923687216616132</v>
       </c>
       <c r="D23">
-        <v>1.015635731471983</v>
+        <v>1.0154133812924</v>
       </c>
       <c r="E23">
-        <v>1.0015070756608</v>
+        <v>1.001436556863835</v>
       </c>
       <c r="F23">
-        <v>1.016483060733138</v>
+        <v>1.016435717132288</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.042275722243219</v>
+        <v>1.042224335510148</v>
       </c>
       <c r="J23">
-        <v>1.022906387077748</v>
+        <v>1.022779805134656</v>
       </c>
       <c r="K23">
-        <v>1.030597887074923</v>
+        <v>1.030379669688755</v>
       </c>
       <c r="L23">
-        <v>1.016736615309961</v>
+        <v>1.016667455864483</v>
       </c>
       <c r="M23">
-        <v>1.031429488751322</v>
+        <v>1.031383023010241</v>
       </c>
       <c r="N23">
-        <v>1.024359031476401</v>
+        <v>1.023547769767365</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.033446687574839</v>
+        <v>1.033409912690715</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.032764597199979</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.032624931039039</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.020569629919666</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9980749255503225</v>
+        <v>0.9971414756539042</v>
       </c>
       <c r="D24">
-        <v>1.01920028543712</v>
+        <v>1.018287133249246</v>
       </c>
       <c r="E24">
-        <v>1.005779310106592</v>
+        <v>1.004995802815239</v>
       </c>
       <c r="F24">
-        <v>1.020607417376912</v>
+        <v>1.020191264165243</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.043619100765217</v>
+        <v>1.043152282911069</v>
       </c>
       <c r="J24">
-        <v>1.02564728155089</v>
+        <v>1.024750007899977</v>
       </c>
       <c r="K24">
-        <v>1.032898408532123</v>
+        <v>1.032000540790193</v>
       </c>
       <c r="L24">
-        <v>1.019705689063236</v>
+        <v>1.018935750902704</v>
       </c>
       <c r="M24">
-        <v>1.034282056710077</v>
+        <v>1.033872840028676</v>
       </c>
       <c r="N24">
-        <v>1.02710381833408</v>
+        <v>1.023681311665908</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.035704322616021</v>
+        <v>1.035380452802033</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.034383666153813</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.033762698139942</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.020857396585373</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.004338982937839</v>
+        <v>1.002897987157614</v>
       </c>
       <c r="D25">
-        <v>1.023228337231764</v>
+        <v>1.021829527381778</v>
       </c>
       <c r="E25">
-        <v>1.010610459164645</v>
+        <v>1.009382987974375</v>
       </c>
       <c r="F25">
-        <v>1.025278402584943</v>
+        <v>1.024632447177033</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.04509757761949</v>
+        <v>1.04436129597823</v>
       </c>
       <c r="J25">
-        <v>1.028721200171889</v>
+        <v>1.027328214530974</v>
       </c>
       <c r="K25">
-        <v>1.035476455338857</v>
+        <v>1.034098162299702</v>
       </c>
       <c r="L25">
-        <v>1.023046264462568</v>
+        <v>1.021837370628796</v>
       </c>
       <c r="M25">
-        <v>1.037496580001778</v>
+        <v>1.036860042209416</v>
       </c>
       <c r="N25">
-        <v>1.030182102272104</v>
+        <v>1.025031259838108</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.03824841479448</v>
+        <v>1.037744636052689</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.03620361725304</v>
+        <v>1.035242658327532</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.021261587062501</v>
       </c>
     </row>
   </sheetData>
